--- a/biology/Microbiologie/Spirochaetaceae/Spirochaetaceae.xlsx
+++ b/biology/Microbiologie/Spirochaetaceae/Spirochaetaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Spirochaetaceae sont une famille de bactéries hélicoïdales à Gram négatif de l'ordre des Spirochaetales. Son nom provient de Spirochaeta qui est le genre type de cette famille.
 </t>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Genres validement publiés
-Selon la LPSN  (1er décembre 2022)[2] :
+          <t>Genres validement publiés</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la LPSN  (1er décembre 2022) :
 Alkalispirochaeta Sravanthi et al. 2016
 Bullifex Wylensek et al. 2021
 Clevelandina Bermudes et al. 1988
@@ -527,8 +544,43 @@
 Sediminispirochaeta Shivani et al. 2016
 Spirochaeta Ehrenberg 1835 – genre type
 Thiospirochaeta Dubinina et al. 2020
-Genres en attente de publication valide
-Selon la LPSN  (1er décembre 2022)[2] les genres suivants sont en attente de publication valide (Ca. signifie Candidatus) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Spirochaetaceae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Spirochaetaceae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste de genres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Genres en attente de publication valide</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon la LPSN  (1er décembre 2022) les genres suivants sont en attente de publication valide (Ca. signifie Candidatus) :
 « Ca. Allospironema » corrig. Paster &amp; Dewhirst 2000
 « Canaleparolina » Wier et al. 2000
 « Entomospira » Grana-Miraglia et al. 2020
